--- a/Shiny/college_data_shiny_all_latest.xlsx
+++ b/Shiny/college_data_shiny_all_latest.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IC64"/>
+  <dimension ref="A1:IY64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,6 +1543,116 @@
           <t>total_criminal</t>
         </is>
       </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>rate_illegal_weapons_possession</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>rate_drug_law_violations</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>rate_liquor_law_violations</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_arrests</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>rate_domestic_violence</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>rate_dating_violence</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>rate_stalking</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_vawa</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>rate_murder_non_negligent_manslaughter</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>rate_negligent_manslaughter</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>rate_sex_offenses_forcible</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>rate_rape</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>rate_fondling</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>rate_sex_offenses_non_forcible</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>rate_incest</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>rate_statutory_rape</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>rate_robbery</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>rate_aggravated_assault</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>rate_burglary</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>rate_motor_vehicle_theft</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>rate_arson</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_criminal</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3532,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="HM5">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="HN5">
         <v>0</v>
       </c>
       <c r="HO5">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="HP5">
         <v>0</v>
@@ -3550,37 +3660,103 @@
         <v>0</v>
       </c>
       <c r="HS5">
-        <v>8.5</v>
+        <v>22</v>
       </c>
       <c r="HT5">
+        <v>14</v>
+      </c>
+      <c r="HU5">
+        <v>0</v>
+      </c>
+      <c r="HV5">
+        <v>0</v>
+      </c>
+      <c r="HW5">
+        <v>0</v>
+      </c>
+      <c r="HX5">
+        <v>1</v>
+      </c>
+      <c r="HY5">
+        <v>0</v>
+      </c>
+      <c r="HZ5">
+        <v>10</v>
+      </c>
+      <c r="IA5">
+        <v>1</v>
+      </c>
+      <c r="IB5">
+        <v>0</v>
+      </c>
+      <c r="IC5">
+        <v>48</v>
+      </c>
+      <c r="ID5">
+        <v>0</v>
+      </c>
+      <c r="IE5">
+        <v>0</v>
+      </c>
+      <c r="IF5">
+        <v>0</v>
+      </c>
+      <c r="IG5">
+        <v>0</v>
+      </c>
+      <c r="IH5">
+        <v>0</v>
+      </c>
+      <c r="II5">
+        <v>0.77</v>
+      </c>
+      <c r="IJ5">
+        <v>0</v>
+      </c>
+      <c r="IK5">
+        <v>0.77</v>
+      </c>
+      <c r="IL5">
+        <v>0</v>
+      </c>
+      <c r="IM5">
+        <v>0</v>
+      </c>
+      <c r="IN5">
+        <v>0</v>
+      </c>
+      <c r="IO5">
+        <v>8.49</v>
+      </c>
+      <c r="IP5">
         <v>5.4</v>
       </c>
-      <c r="HU5">
-        <v>0</v>
-      </c>
-      <c r="HV5">
-        <v>0</v>
-      </c>
-      <c r="HW5">
-        <v>0</v>
-      </c>
-      <c r="HX5">
-        <v>0.4</v>
-      </c>
-      <c r="HY5">
-        <v>0</v>
-      </c>
-      <c r="HZ5">
-        <v>3.9</v>
-      </c>
-      <c r="IA5">
-        <v>0.4</v>
-      </c>
-      <c r="IB5">
-        <v>0</v>
-      </c>
-      <c r="IC5">
-        <v>18.5</v>
+      <c r="IQ5">
+        <v>0</v>
+      </c>
+      <c r="IR5">
+        <v>0</v>
+      </c>
+      <c r="IS5">
+        <v>0</v>
+      </c>
+      <c r="IT5">
+        <v>0.39</v>
+      </c>
+      <c r="IU5">
+        <v>0</v>
+      </c>
+      <c r="IV5">
+        <v>3.86</v>
+      </c>
+      <c r="IW5">
+        <v>0.39</v>
+      </c>
+      <c r="IX5">
+        <v>0</v>
+      </c>
+      <c r="IY5">
+        <v>18.53</v>
       </c>
     </row>
     <row r="6">
@@ -14337,16 +14513,16 @@
         <v>0</v>
       </c>
       <c r="HL25">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="HM25">
         <v>0</v>
       </c>
       <c r="HN25">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="HO25">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="HP25">
         <v>0</v>
@@ -14358,7 +14534,7 @@
         <v>0</v>
       </c>
       <c r="HS25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HT25">
         <v>0</v>
@@ -14376,19 +14552,85 @@
         <v>0</v>
       </c>
       <c r="HY25">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="HZ25">
-        <v>4.7</v>
+        <v>14</v>
       </c>
       <c r="IA25">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="IB25">
         <v>0</v>
       </c>
       <c r="IC25">
-        <v>6.8</v>
+        <v>20</v>
+      </c>
+      <c r="ID25">
+        <v>0</v>
+      </c>
+      <c r="IE25">
+        <v>0</v>
+      </c>
+      <c r="IF25">
+        <v>0</v>
+      </c>
+      <c r="IG25">
+        <v>0</v>
+      </c>
+      <c r="IH25">
+        <v>1.35</v>
+      </c>
+      <c r="II25">
+        <v>0</v>
+      </c>
+      <c r="IJ25">
+        <v>0.34</v>
+      </c>
+      <c r="IK25">
+        <v>1.69</v>
+      </c>
+      <c r="IL25">
+        <v>0</v>
+      </c>
+      <c r="IM25">
+        <v>0</v>
+      </c>
+      <c r="IN25">
+        <v>0</v>
+      </c>
+      <c r="IO25">
+        <v>1.02</v>
+      </c>
+      <c r="IP25">
+        <v>0</v>
+      </c>
+      <c r="IQ25">
+        <v>0</v>
+      </c>
+      <c r="IR25">
+        <v>0</v>
+      </c>
+      <c r="IS25">
+        <v>0</v>
+      </c>
+      <c r="IT25">
+        <v>0</v>
+      </c>
+      <c r="IU25">
+        <v>0.68</v>
+      </c>
+      <c r="IV25">
+        <v>4.74</v>
+      </c>
+      <c r="IW25">
+        <v>0.34</v>
+      </c>
+      <c r="IX25">
+        <v>0</v>
+      </c>
+      <c r="IY25">
+        <v>6.77</v>
       </c>
     </row>
     <row r="26">

--- a/Shiny/college_data_shiny_all_latest.xlsx
+++ b/Shiny/college_data_shiny_all_latest.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IY64"/>
+  <dimension ref="A1:JA64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,222 +1435,232 @@
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
+          <t>murder_non_negligent_manslaughter</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>negligent_manslaughter</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>sex_offenses_forcible</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>rape</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>fondling</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>sex_offenses_non_forcible</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>incest</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>statutory_rape</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>robbery</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>aggravated_assault</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>burglary</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>motor_vehicle_theft</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>arson</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>total_criminal</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>domestic_violence</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>dating_violence</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>stalking</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>total_vawa</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
           <t>illegal_weapons_possession</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>drug_law_violations</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>liquor_law_violations</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>total_arrests</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
-        <is>
-          <t>domestic_violence</t>
-        </is>
-      </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>dating_violence</t>
-        </is>
-      </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>stalking</t>
-        </is>
-      </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>total_vawa</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>murder_non_negligent_manslaughter</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>negligent_manslaughter</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
-        <is>
-          <t>sex_offenses_forcible</t>
-        </is>
-      </c>
-      <c r="HS1" s="1" t="inlineStr">
-        <is>
-          <t>rape</t>
-        </is>
-      </c>
-      <c r="HT1" s="1" t="inlineStr">
-        <is>
-          <t>fondling</t>
-        </is>
-      </c>
-      <c r="HU1" s="1" t="inlineStr">
-        <is>
-          <t>sex_offenses_non_forcible</t>
-        </is>
-      </c>
-      <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>incest</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>statutory_rape</t>
-        </is>
-      </c>
-      <c r="HX1" s="1" t="inlineStr">
-        <is>
-          <t>robbery</t>
-        </is>
-      </c>
-      <c r="HY1" s="1" t="inlineStr">
-        <is>
-          <t>aggravated_assault</t>
-        </is>
-      </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>burglary</t>
-        </is>
-      </c>
-      <c r="IA1" s="1" t="inlineStr">
-        <is>
-          <t>motor_vehicle_theft</t>
-        </is>
-      </c>
-      <c r="IB1" s="1" t="inlineStr">
-        <is>
-          <t>arson</t>
-        </is>
-      </c>
-      <c r="IC1" s="1" t="inlineStr">
-        <is>
-          <t>total_criminal</t>
-        </is>
-      </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
+          <t>total_css</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>rate_murder_non_negligent_manslaughter</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>rate_negligent_manslaughter</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>rate_sex_offenses_forcible</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>rate_rape</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>rate_fondling</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>rate_sex_offenses_non_forcible</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>rate_incest</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>rate_statutory_rape</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>rate_robbery</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>rate_aggravated_assault</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>rate_burglary</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>rate_motor_vehicle_theft</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>rate_arson</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_criminal</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>rate_domestic_violence</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>rate_dating_violence</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>rate_stalking</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_vawa</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
           <t>rate_illegal_weapons_possession</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>rate_drug_law_violations</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>rate_liquor_law_violations</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>rate_total_arrests</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
-        <is>
-          <t>rate_domestic_violence</t>
-        </is>
-      </c>
-      <c r="II1" s="1" t="inlineStr">
-        <is>
-          <t>rate_dating_violence</t>
-        </is>
-      </c>
-      <c r="IJ1" s="1" t="inlineStr">
-        <is>
-          <t>rate_stalking</t>
-        </is>
-      </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>rate_total_vawa</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>rate_murder_non_negligent_manslaughter</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
-        <is>
-          <t>rate_negligent_manslaughter</t>
-        </is>
-      </c>
-      <c r="IN1" s="1" t="inlineStr">
-        <is>
-          <t>rate_sex_offenses_forcible</t>
-        </is>
-      </c>
-      <c r="IO1" s="1" t="inlineStr">
-        <is>
-          <t>rate_rape</t>
-        </is>
-      </c>
-      <c r="IP1" s="1" t="inlineStr">
-        <is>
-          <t>rate_fondling</t>
-        </is>
-      </c>
-      <c r="IQ1" s="1" t="inlineStr">
-        <is>
-          <t>rate_sex_offenses_non_forcible</t>
-        </is>
-      </c>
-      <c r="IR1" s="1" t="inlineStr">
-        <is>
-          <t>rate_incest</t>
-        </is>
-      </c>
-      <c r="IS1" s="1" t="inlineStr">
-        <is>
-          <t>rate_statutory_rape</t>
-        </is>
-      </c>
-      <c r="IT1" s="1" t="inlineStr">
-        <is>
-          <t>rate_robbery</t>
-        </is>
-      </c>
-      <c r="IU1" s="1" t="inlineStr">
-        <is>
-          <t>rate_aggravated_assault</t>
-        </is>
-      </c>
-      <c r="IV1" s="1" t="inlineStr">
-        <is>
-          <t>rate_burglary</t>
-        </is>
-      </c>
-      <c r="IW1" s="1" t="inlineStr">
-        <is>
-          <t>rate_motor_vehicle_theft</t>
-        </is>
-      </c>
-      <c r="IX1" s="1" t="inlineStr">
-        <is>
-          <t>rate_arson</t>
-        </is>
-      </c>
-      <c r="IY1" s="1" t="inlineStr">
-        <is>
-          <t>rate_total_criminal</t>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_css</t>
         </is>
       </c>
     </row>
@@ -3636,64 +3646,64 @@
         <v>0</v>
       </c>
       <c r="HK5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="HL5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="HM5">
+        <v>0</v>
+      </c>
+      <c r="HN5">
+        <v>0</v>
+      </c>
+      <c r="HO5">
+        <v>0</v>
+      </c>
+      <c r="HP5">
+        <v>1</v>
+      </c>
+      <c r="HQ5">
+        <v>0</v>
+      </c>
+      <c r="HR5">
+        <v>10</v>
+      </c>
+      <c r="HS5">
+        <v>1</v>
+      </c>
+      <c r="HT5">
+        <v>0</v>
+      </c>
+      <c r="HU5">
+        <v>48</v>
+      </c>
+      <c r="HV5">
+        <v>0</v>
+      </c>
+      <c r="HW5">
         <v>2</v>
       </c>
-      <c r="HN5">
-        <v>0</v>
-      </c>
-      <c r="HO5">
+      <c r="HX5">
+        <v>0</v>
+      </c>
+      <c r="HY5">
         <v>2</v>
       </c>
-      <c r="HP5">
-        <v>0</v>
-      </c>
-      <c r="HQ5">
-        <v>0</v>
-      </c>
-      <c r="HR5">
-        <v>0</v>
-      </c>
-      <c r="HS5">
-        <v>22</v>
-      </c>
-      <c r="HT5">
-        <v>14</v>
-      </c>
-      <c r="HU5">
-        <v>0</v>
-      </c>
-      <c r="HV5">
-        <v>0</v>
-      </c>
-      <c r="HW5">
-        <v>0</v>
-      </c>
-      <c r="HX5">
-        <v>1</v>
-      </c>
-      <c r="HY5">
-        <v>0</v>
-      </c>
       <c r="HZ5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB5">
         <v>0</v>
       </c>
       <c r="IC5">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="ID5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="IE5">
         <v>0</v>
@@ -3705,58 +3715,64 @@
         <v>0</v>
       </c>
       <c r="IH5">
-        <v>0</v>
+        <v>8.49</v>
       </c>
       <c r="II5">
+        <v>5.4</v>
+      </c>
+      <c r="IJ5">
+        <v>0</v>
+      </c>
+      <c r="IK5">
+        <v>0</v>
+      </c>
+      <c r="IL5">
+        <v>0</v>
+      </c>
+      <c r="IM5">
+        <v>0.39</v>
+      </c>
+      <c r="IN5">
+        <v>0</v>
+      </c>
+      <c r="IO5">
+        <v>3.86</v>
+      </c>
+      <c r="IP5">
+        <v>0.39</v>
+      </c>
+      <c r="IQ5">
+        <v>0</v>
+      </c>
+      <c r="IR5">
+        <v>18.53</v>
+      </c>
+      <c r="IS5">
+        <v>0</v>
+      </c>
+      <c r="IT5">
         <v>0.77</v>
       </c>
-      <c r="IJ5">
-        <v>0</v>
-      </c>
-      <c r="IK5">
+      <c r="IU5">
+        <v>0</v>
+      </c>
+      <c r="IV5">
         <v>0.77</v>
       </c>
-      <c r="IL5">
-        <v>0</v>
-      </c>
-      <c r="IM5">
-        <v>0</v>
-      </c>
-      <c r="IN5">
-        <v>0</v>
-      </c>
-      <c r="IO5">
-        <v>8.49</v>
-      </c>
-      <c r="IP5">
-        <v>5.4</v>
-      </c>
-      <c r="IQ5">
-        <v>0</v>
-      </c>
-      <c r="IR5">
-        <v>0</v>
-      </c>
-      <c r="IS5">
-        <v>0</v>
-      </c>
-      <c r="IT5">
-        <v>0.39</v>
-      </c>
-      <c r="IU5">
-        <v>0</v>
-      </c>
-      <c r="IV5">
-        <v>3.86</v>
-      </c>
       <c r="IW5">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="IX5">
         <v>0</v>
       </c>
       <c r="IY5">
-        <v>18.53</v>
+        <v>0</v>
+      </c>
+      <c r="IZ5">
+        <v>0</v>
+      </c>
+      <c r="JA5">
+        <v>19.3</v>
       </c>
     </row>
     <row r="6">
@@ -11855,7 +11871,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -11996,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="FT21">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="GV21">
         <v>1</v>
@@ -12010,6 +12026,157 @@
         <is>
           <t xml:space="preserve">all NA NA    </t>
         </is>
+      </c>
+      <c r="HE21" t="inlineStr">
+        <is>
+          <t>Johns Hopkins University</t>
+        </is>
+      </c>
+      <c r="HF21" t="inlineStr">
+        <is>
+          <t>JHU  HOMEWOOD  CAMPUS- BALTIMORE- MARYLAND</t>
+        </is>
+      </c>
+      <c r="HG21">
+        <v>32049</v>
+      </c>
+      <c r="HH21">
+        <v>0</v>
+      </c>
+      <c r="HI21">
+        <v>0</v>
+      </c>
+      <c r="HJ21">
+        <v>0</v>
+      </c>
+      <c r="HK21">
+        <v>18</v>
+      </c>
+      <c r="HL21">
+        <v>4</v>
+      </c>
+      <c r="HM21">
+        <v>0</v>
+      </c>
+      <c r="HN21">
+        <v>0</v>
+      </c>
+      <c r="HO21">
+        <v>0</v>
+      </c>
+      <c r="HP21">
+        <v>11</v>
+      </c>
+      <c r="HQ21">
+        <v>10</v>
+      </c>
+      <c r="HR21">
+        <v>8</v>
+      </c>
+      <c r="HS21">
+        <v>8</v>
+      </c>
+      <c r="HT21">
+        <v>0</v>
+      </c>
+      <c r="HU21">
+        <v>59</v>
+      </c>
+      <c r="HV21">
+        <v>8</v>
+      </c>
+      <c r="HW21">
+        <v>2</v>
+      </c>
+      <c r="HX21">
+        <v>20</v>
+      </c>
+      <c r="HY21">
+        <v>30</v>
+      </c>
+      <c r="HZ21">
+        <v>0</v>
+      </c>
+      <c r="IA21">
+        <v>0</v>
+      </c>
+      <c r="IB21">
+        <v>0</v>
+      </c>
+      <c r="IC21">
+        <v>0</v>
+      </c>
+      <c r="ID21">
+        <v>89</v>
+      </c>
+      <c r="IE21">
+        <v>0</v>
+      </c>
+      <c r="IF21">
+        <v>0</v>
+      </c>
+      <c r="IG21">
+        <v>0</v>
+      </c>
+      <c r="IH21">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="II21">
+        <v>0.12</v>
+      </c>
+      <c r="IJ21">
+        <v>0</v>
+      </c>
+      <c r="IK21">
+        <v>0</v>
+      </c>
+      <c r="IL21">
+        <v>0</v>
+      </c>
+      <c r="IM21">
+        <v>0.34</v>
+      </c>
+      <c r="IN21">
+        <v>0.31</v>
+      </c>
+      <c r="IO21">
+        <v>0.25</v>
+      </c>
+      <c r="IP21">
+        <v>0.25</v>
+      </c>
+      <c r="IQ21">
+        <v>0</v>
+      </c>
+      <c r="IR21">
+        <v>1.84</v>
+      </c>
+      <c r="IS21">
+        <v>0.25</v>
+      </c>
+      <c r="IT21">
+        <v>0.06</v>
+      </c>
+      <c r="IU21">
+        <v>0.62</v>
+      </c>
+      <c r="IV21">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="IW21">
+        <v>0</v>
+      </c>
+      <c r="IX21">
+        <v>0</v>
+      </c>
+      <c r="IY21">
+        <v>0</v>
+      </c>
+      <c r="IZ21">
+        <v>0</v>
+      </c>
+      <c r="JA21">
+        <v>2.78</v>
       </c>
     </row>
     <row r="22">
@@ -14510,64 +14677,64 @@
         <v>0</v>
       </c>
       <c r="HK25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HL25">
+        <v>0</v>
+      </c>
+      <c r="HM25">
+        <v>0</v>
+      </c>
+      <c r="HN25">
+        <v>0</v>
+      </c>
+      <c r="HO25">
+        <v>0</v>
+      </c>
+      <c r="HP25">
+        <v>0</v>
+      </c>
+      <c r="HQ25">
+        <v>2</v>
+      </c>
+      <c r="HR25">
+        <v>14</v>
+      </c>
+      <c r="HS25">
+        <v>1</v>
+      </c>
+      <c r="HT25">
+        <v>0</v>
+      </c>
+      <c r="HU25">
+        <v>20</v>
+      </c>
+      <c r="HV25">
         <v>4</v>
       </c>
-      <c r="HM25">
-        <v>0</v>
-      </c>
-      <c r="HN25">
-        <v>1</v>
-      </c>
-      <c r="HO25">
+      <c r="HW25">
+        <v>0</v>
+      </c>
+      <c r="HX25">
+        <v>1</v>
+      </c>
+      <c r="HY25">
         <v>5</v>
       </c>
-      <c r="HP25">
-        <v>0</v>
-      </c>
-      <c r="HQ25">
-        <v>0</v>
-      </c>
-      <c r="HR25">
-        <v>0</v>
-      </c>
-      <c r="HS25">
-        <v>3</v>
-      </c>
-      <c r="HT25">
-        <v>0</v>
-      </c>
-      <c r="HU25">
-        <v>0</v>
-      </c>
-      <c r="HV25">
-        <v>0</v>
-      </c>
-      <c r="HW25">
-        <v>0</v>
-      </c>
-      <c r="HX25">
-        <v>0</v>
-      </c>
-      <c r="HY25">
-        <v>2</v>
-      </c>
       <c r="HZ25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="IA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB25">
         <v>0</v>
       </c>
       <c r="IC25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="ID25">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="IE25">
         <v>0</v>
@@ -14579,58 +14746,64 @@
         <v>0</v>
       </c>
       <c r="IH25">
+        <v>1.02</v>
+      </c>
+      <c r="II25">
+        <v>0</v>
+      </c>
+      <c r="IJ25">
+        <v>0</v>
+      </c>
+      <c r="IK25">
+        <v>0</v>
+      </c>
+      <c r="IL25">
+        <v>0</v>
+      </c>
+      <c r="IM25">
+        <v>0</v>
+      </c>
+      <c r="IN25">
+        <v>0.68</v>
+      </c>
+      <c r="IO25">
+        <v>4.74</v>
+      </c>
+      <c r="IP25">
+        <v>0.34</v>
+      </c>
+      <c r="IQ25">
+        <v>0</v>
+      </c>
+      <c r="IR25">
+        <v>6.77</v>
+      </c>
+      <c r="IS25">
         <v>1.35</v>
       </c>
-      <c r="II25">
-        <v>0</v>
-      </c>
-      <c r="IJ25">
+      <c r="IT25">
+        <v>0</v>
+      </c>
+      <c r="IU25">
         <v>0.34</v>
       </c>
-      <c r="IK25">
+      <c r="IV25">
         <v>1.69</v>
       </c>
-      <c r="IL25">
-        <v>0</v>
-      </c>
-      <c r="IM25">
-        <v>0</v>
-      </c>
-      <c r="IN25">
-        <v>0</v>
-      </c>
-      <c r="IO25">
-        <v>1.02</v>
-      </c>
-      <c r="IP25">
-        <v>0</v>
-      </c>
-      <c r="IQ25">
-        <v>0</v>
-      </c>
-      <c r="IR25">
-        <v>0</v>
-      </c>
-      <c r="IS25">
-        <v>0</v>
-      </c>
-      <c r="IT25">
-        <v>0</v>
-      </c>
-      <c r="IU25">
-        <v>0.68</v>
-      </c>
-      <c r="IV25">
-        <v>4.74</v>
-      </c>
       <c r="IW25">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="IX25">
         <v>0</v>
       </c>
       <c r="IY25">
-        <v>6.77</v>
+        <v>0</v>
+      </c>
+      <c r="IZ25">
+        <v>0</v>
+      </c>
+      <c r="JA25">
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="26">

--- a/Shiny/college_data_shiny_all_latest.xlsx
+++ b/Shiny/college_data_shiny_all_latest.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:JA64"/>
+  <dimension ref="A1:JB64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,260 +1405,265 @@
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
+          <t>groupprivate</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
           <t>grouppublic</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>groupwest</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>institution_name</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>campus_name</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>institution_size</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>murder_non_negligent_manslaughter</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>negligent_manslaughter</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>sex_offenses_forcible</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>rape</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>fondling</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>sex_offenses_non_forcible</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>incest</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>statutory_rape</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>robbery</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>aggravated_assault</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>burglary</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>motor_vehicle_theft</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>arson</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>total_criminal</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>domestic_violence</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>dating_violence</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>stalking</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>total_vawa</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>illegal_weapons_possession</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>drug_law_violations</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>liquor_law_violations</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>total_arrests</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>total_css</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>rate_murder_non_negligent_manslaughter</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>rate_negligent_manslaughter</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>rate_sex_offenses_forcible</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>rate_rape</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>rate_fondling</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>rate_sex_offenses_non_forcible</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>rate_incest</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>rate_statutory_rape</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>rate_robbery</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>rate_aggravated_assault</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>rate_burglary</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>rate_motor_vehicle_theft</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>rate_arson</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>rate_total_criminal</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>rate_domestic_violence</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>rate_dating_violence</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>rate_stalking</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>rate_total_vawa</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>rate_illegal_weapons_possession</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>rate_drug_law_violations</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>rate_liquor_law_violations</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>rate_total_arrests</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>rate_total_css</t>
         </is>
@@ -2290,9 +2295,14 @@
           <t>women</t>
         </is>
       </c>
-      <c r="HD2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all tiny safety women   </t>
+      <c r="HB2" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all tiny safety women  private  </t>
         </is>
       </c>
     </row>
@@ -2902,9 +2912,14 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HD3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all medium target    </t>
+      <c r="HB3" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all medium target   private  </t>
         </is>
       </c>
     </row>
@@ -3018,9 +3033,14 @@
           <t>open</t>
         </is>
       </c>
-      <c r="HD4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all NA NA  open  </t>
+      <c r="HB4" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all NA NA  open private  </t>
         </is>
       </c>
     </row>
@@ -3618,27 +3638,29 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HD5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all tiny safety    </t>
+      <c r="HB5" t="inlineStr">
+        <is>
+          <t>private</t>
         </is>
       </c>
       <c r="HE5" t="inlineStr">
         <is>
+          <t xml:space="preserve">all tiny safety   private  </t>
+        </is>
+      </c>
+      <c r="HF5" t="inlineStr">
+        <is>
           <t>Bard College</t>
         </is>
       </c>
-      <c r="HF5" t="inlineStr">
+      <c r="HG5" t="inlineStr">
         <is>
           <t>Main Campus</t>
         </is>
       </c>
-      <c r="HG5">
+      <c r="HH5">
         <v>2591</v>
       </c>
-      <c r="HH5">
-        <v>0</v>
-      </c>
       <c r="HI5">
         <v>0</v>
       </c>
@@ -3646,14 +3668,14 @@
         <v>0</v>
       </c>
       <c r="HK5">
+        <v>0</v>
+      </c>
+      <c r="HL5">
         <v>22</v>
       </c>
-      <c r="HL5">
+      <c r="HM5">
         <v>14</v>
       </c>
-      <c r="HM5">
-        <v>0</v>
-      </c>
       <c r="HN5">
         <v>0</v>
       </c>
@@ -3661,38 +3683,38 @@
         <v>0</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR5">
+        <v>0</v>
+      </c>
+      <c r="HS5">
         <v>10</v>
       </c>
-      <c r="HS5">
-        <v>1</v>
-      </c>
       <c r="HT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU5">
+        <v>0</v>
+      </c>
+      <c r="HV5">
         <v>48</v>
       </c>
-      <c r="HV5">
-        <v>0</v>
-      </c>
       <c r="HW5">
+        <v>0</v>
+      </c>
+      <c r="HX5">
         <v>2</v>
       </c>
-      <c r="HX5">
-        <v>0</v>
-      </c>
       <c r="HY5">
+        <v>0</v>
+      </c>
+      <c r="HZ5">
         <v>2</v>
       </c>
-      <c r="HZ5">
-        <v>0</v>
-      </c>
       <c r="IA5">
         <v>0</v>
       </c>
@@ -3703,11 +3725,11 @@
         <v>0</v>
       </c>
       <c r="ID5">
+        <v>0</v>
+      </c>
+      <c r="IE5">
         <v>50</v>
       </c>
-      <c r="IE5">
-        <v>0</v>
-      </c>
       <c r="IF5">
         <v>0</v>
       </c>
@@ -3715,14 +3737,14 @@
         <v>0</v>
       </c>
       <c r="IH5">
+        <v>0</v>
+      </c>
+      <c r="II5">
         <v>8.49</v>
       </c>
-      <c r="II5">
+      <c r="IJ5">
         <v>5.4</v>
       </c>
-      <c r="IJ5">
-        <v>0</v>
-      </c>
       <c r="IK5">
         <v>0</v>
       </c>
@@ -3730,38 +3752,38 @@
         <v>0</v>
       </c>
       <c r="IM5">
+        <v>0</v>
+      </c>
+      <c r="IN5">
         <v>0.39</v>
       </c>
-      <c r="IN5">
-        <v>0</v>
-      </c>
       <c r="IO5">
+        <v>0</v>
+      </c>
+      <c r="IP5">
         <v>3.86</v>
       </c>
-      <c r="IP5">
+      <c r="IQ5">
         <v>0.39</v>
       </c>
-      <c r="IQ5">
-        <v>0</v>
-      </c>
       <c r="IR5">
+        <v>0</v>
+      </c>
+      <c r="IS5">
         <v>18.53</v>
       </c>
-      <c r="IS5">
-        <v>0</v>
-      </c>
       <c r="IT5">
+        <v>0</v>
+      </c>
+      <c r="IU5">
         <v>0.77</v>
       </c>
-      <c r="IU5">
-        <v>0</v>
-      </c>
       <c r="IV5">
+        <v>0</v>
+      </c>
+      <c r="IW5">
         <v>0.77</v>
       </c>
-      <c r="IW5">
-        <v>0</v>
-      </c>
       <c r="IX5">
         <v>0</v>
       </c>
@@ -3772,6 +3794,9 @@
         <v>0</v>
       </c>
       <c r="JA5">
+        <v>0</v>
+      </c>
+      <c r="JB5">
         <v>19.3</v>
       </c>
     </row>
@@ -4389,9 +4414,14 @@
           <t>women</t>
         </is>
       </c>
-      <c r="HD6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all small reach women   </t>
+      <c r="HB6" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all small reach women  private  </t>
         </is>
       </c>
     </row>
@@ -5031,9 +5061,14 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HD7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all large reach    </t>
+      <c r="HB7" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all large reach   private  </t>
         </is>
       </c>
     </row>
@@ -5650,9 +5685,14 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HD8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all tiny reach    </t>
+      <c r="HB8" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all tiny reach   private  </t>
         </is>
       </c>
     </row>
@@ -6273,9 +6313,14 @@
           <t>open</t>
         </is>
       </c>
-      <c r="HD9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all medium reach  open  </t>
+      <c r="HB9" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all medium reach  open private  </t>
         </is>
       </c>
     </row>
@@ -6863,9 +6908,14 @@
           <t>women</t>
         </is>
       </c>
-      <c r="HD10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all tiny target women   </t>
+      <c r="HB10" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all tiny target women  private  </t>
         </is>
       </c>
     </row>
@@ -7493,9 +7543,14 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HD11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all medium target    </t>
+      <c r="HB11" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all medium target   private  </t>
         </is>
       </c>
     </row>
@@ -8093,9 +8148,14 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HD12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all tiny target    </t>
+      <c r="HB12" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all tiny target   private  </t>
         </is>
       </c>
     </row>
@@ -8684,19 +8744,19 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB13" t="inlineStr">
+      <c r="HC13" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HC13" t="inlineStr">
+      <c r="HD13" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="HD13" t="inlineStr">
-        <is>
-          <t>all large safety   public west</t>
+      <c r="HE13" t="inlineStr">
+        <is>
+          <t>all large safety    public west</t>
         </is>
       </c>
     </row>
@@ -9138,9 +9198,14 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HD14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all tiny reach    </t>
+      <c r="HB14" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all tiny reach   private  </t>
         </is>
       </c>
     </row>
@@ -9674,9 +9739,14 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HD15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all large safety    </t>
+      <c r="HB15" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all large safety   private  </t>
         </is>
       </c>
     </row>
@@ -10302,9 +10372,14 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HD16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all large target    </t>
+      <c r="HB16" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all large target   private  </t>
         </is>
       </c>
     </row>
@@ -10908,9 +10983,14 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HD17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all medium reach    </t>
+      <c r="HB17" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all medium reach   private  </t>
         </is>
       </c>
     </row>
@@ -11024,9 +11104,14 @@
           <t>open</t>
         </is>
       </c>
-      <c r="HD18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all NA NA  open  </t>
+      <c r="HB18" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all NA NA  open private  </t>
         </is>
       </c>
     </row>
@@ -11239,9 +11324,14 @@
           <t>all</t>
         </is>
       </c>
-      <c r="HD19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all NA NA    </t>
+      <c r="HB19" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all NA NA   private  </t>
         </is>
       </c>
     </row>
@@ -11858,9 +11948,14 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HD20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all tiny reach    </t>
+      <c r="HB20" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all tiny reach   private  </t>
         </is>
       </c>
     </row>
@@ -12022,27 +12117,29 @@
           <t>all</t>
         </is>
       </c>
-      <c r="HD21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all NA NA    </t>
+      <c r="HB21" t="inlineStr">
+        <is>
+          <t>private</t>
         </is>
       </c>
       <c r="HE21" t="inlineStr">
         <is>
+          <t xml:space="preserve">all NA NA   private  </t>
+        </is>
+      </c>
+      <c r="HF21" t="inlineStr">
+        <is>
           <t>Johns Hopkins University</t>
         </is>
       </c>
-      <c r="HF21" t="inlineStr">
+      <c r="HG21" t="inlineStr">
         <is>
           <t>JHU  HOMEWOOD  CAMPUS- BALTIMORE- MARYLAND</t>
         </is>
       </c>
-      <c r="HG21">
+      <c r="HH21">
         <v>32049</v>
       </c>
-      <c r="HH21">
-        <v>0</v>
-      </c>
       <c r="HI21">
         <v>0</v>
       </c>
@@ -12050,14 +12147,14 @@
         <v>0</v>
       </c>
       <c r="HK21">
+        <v>0</v>
+      </c>
+      <c r="HL21">
         <v>18</v>
       </c>
-      <c r="HL21">
+      <c r="HM21">
         <v>4</v>
       </c>
-      <c r="HM21">
-        <v>0</v>
-      </c>
       <c r="HN21">
         <v>0</v>
       </c>
@@ -12065,38 +12162,38 @@
         <v>0</v>
       </c>
       <c r="HP21">
+        <v>0</v>
+      </c>
+      <c r="HQ21">
         <v>11</v>
       </c>
-      <c r="HQ21">
+      <c r="HR21">
         <v>10</v>
-      </c>
-      <c r="HR21">
-        <v>8</v>
       </c>
       <c r="HS21">
         <v>8</v>
       </c>
       <c r="HT21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="HU21">
+        <v>0</v>
+      </c>
+      <c r="HV21">
         <v>59</v>
       </c>
-      <c r="HV21">
+      <c r="HW21">
         <v>8</v>
       </c>
-      <c r="HW21">
+      <c r="HX21">
         <v>2</v>
       </c>
-      <c r="HX21">
+      <c r="HY21">
         <v>20</v>
       </c>
-      <c r="HY21">
+      <c r="HZ21">
         <v>30</v>
       </c>
-      <c r="HZ21">
-        <v>0</v>
-      </c>
       <c r="IA21">
         <v>0</v>
       </c>
@@ -12107,11 +12204,11 @@
         <v>0</v>
       </c>
       <c r="ID21">
+        <v>0</v>
+      </c>
+      <c r="IE21">
         <v>89</v>
       </c>
-      <c r="IE21">
-        <v>0</v>
-      </c>
       <c r="IF21">
         <v>0</v>
       </c>
@@ -12119,14 +12216,14 @@
         <v>0</v>
       </c>
       <c r="IH21">
+        <v>0</v>
+      </c>
+      <c r="II21">
         <v>0.5600000000000001</v>
       </c>
-      <c r="II21">
+      <c r="IJ21">
         <v>0.12</v>
       </c>
-      <c r="IJ21">
-        <v>0</v>
-      </c>
       <c r="IK21">
         <v>0</v>
       </c>
@@ -12134,38 +12231,38 @@
         <v>0</v>
       </c>
       <c r="IM21">
+        <v>0</v>
+      </c>
+      <c r="IN21">
         <v>0.34</v>
       </c>
-      <c r="IN21">
+      <c r="IO21">
         <v>0.31</v>
-      </c>
-      <c r="IO21">
-        <v>0.25</v>
       </c>
       <c r="IP21">
         <v>0.25</v>
       </c>
       <c r="IQ21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="IR21">
+        <v>0</v>
+      </c>
+      <c r="IS21">
         <v>1.84</v>
       </c>
-      <c r="IS21">
+      <c r="IT21">
         <v>0.25</v>
       </c>
-      <c r="IT21">
+      <c r="IU21">
         <v>0.06</v>
       </c>
-      <c r="IU21">
+      <c r="IV21">
         <v>0.62</v>
       </c>
-      <c r="IV21">
+      <c r="IW21">
         <v>0.9399999999999999</v>
       </c>
-      <c r="IW21">
-        <v>0</v>
-      </c>
       <c r="IX21">
         <v>0</v>
       </c>
@@ -12176,6 +12273,9 @@
         <v>0</v>
       </c>
       <c r="JA21">
+        <v>0</v>
+      </c>
+      <c r="JB21">
         <v>2.78</v>
       </c>
     </row>
@@ -12833,9 +12933,14 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HD22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all small target    </t>
+      <c r="HB22" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all small target   private  </t>
         </is>
       </c>
     </row>
@@ -13420,9 +13525,14 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HD23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all small reach    </t>
+      <c r="HB23" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all small reach   private  </t>
         </is>
       </c>
     </row>
@@ -14044,9 +14154,14 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HD24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all large reach    </t>
+      <c r="HB24" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all large reach   private  </t>
         </is>
       </c>
     </row>
@@ -14649,27 +14764,29 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HD25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all small target    </t>
+      <c r="HB25" t="inlineStr">
+        <is>
+          <t>private</t>
         </is>
       </c>
       <c r="HE25" t="inlineStr">
         <is>
+          <t xml:space="preserve">all small target   private  </t>
+        </is>
+      </c>
+      <c r="HF25" t="inlineStr">
+        <is>
           <t>Oberlin College</t>
         </is>
       </c>
-      <c r="HF25" t="inlineStr">
+      <c r="HG25" t="inlineStr">
         <is>
           <t>Main Campus</t>
         </is>
       </c>
-      <c r="HG25">
+      <c r="HH25">
         <v>2953</v>
       </c>
-      <c r="HH25">
-        <v>0</v>
-      </c>
       <c r="HI25">
         <v>0</v>
       </c>
@@ -14677,11 +14794,11 @@
         <v>0</v>
       </c>
       <c r="HK25">
+        <v>0</v>
+      </c>
+      <c r="HL25">
         <v>3</v>
       </c>
-      <c r="HL25">
-        <v>0</v>
-      </c>
       <c r="HM25">
         <v>0</v>
       </c>
@@ -14695,35 +14812,35 @@
         <v>0</v>
       </c>
       <c r="HQ25">
+        <v>0</v>
+      </c>
+      <c r="HR25">
         <v>2</v>
       </c>
-      <c r="HR25">
+      <c r="HS25">
         <v>14</v>
       </c>
-      <c r="HS25">
-        <v>1</v>
-      </c>
       <c r="HT25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU25">
+        <v>0</v>
+      </c>
+      <c r="HV25">
         <v>20</v>
       </c>
-      <c r="HV25">
+      <c r="HW25">
         <v>4</v>
       </c>
-      <c r="HW25">
-        <v>0</v>
-      </c>
       <c r="HX25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY25">
+        <v>1</v>
+      </c>
+      <c r="HZ25">
         <v>5</v>
       </c>
-      <c r="HZ25">
-        <v>0</v>
-      </c>
       <c r="IA25">
         <v>0</v>
       </c>
@@ -14734,11 +14851,11 @@
         <v>0</v>
       </c>
       <c r="ID25">
+        <v>0</v>
+      </c>
+      <c r="IE25">
         <v>25</v>
       </c>
-      <c r="IE25">
-        <v>0</v>
-      </c>
       <c r="IF25">
         <v>0</v>
       </c>
@@ -14746,11 +14863,11 @@
         <v>0</v>
       </c>
       <c r="IH25">
+        <v>0</v>
+      </c>
+      <c r="II25">
         <v>1.02</v>
       </c>
-      <c r="II25">
-        <v>0</v>
-      </c>
       <c r="IJ25">
         <v>0</v>
       </c>
@@ -14764,35 +14881,35 @@
         <v>0</v>
       </c>
       <c r="IN25">
+        <v>0</v>
+      </c>
+      <c r="IO25">
         <v>0.68</v>
       </c>
-      <c r="IO25">
+      <c r="IP25">
         <v>4.74</v>
       </c>
-      <c r="IP25">
+      <c r="IQ25">
         <v>0.34</v>
       </c>
-      <c r="IQ25">
-        <v>0</v>
-      </c>
       <c r="IR25">
+        <v>0</v>
+      </c>
+      <c r="IS25">
         <v>6.77</v>
       </c>
-      <c r="IS25">
+      <c r="IT25">
         <v>1.35</v>
       </c>
-      <c r="IT25">
-        <v>0</v>
-      </c>
       <c r="IU25">
+        <v>0</v>
+      </c>
+      <c r="IV25">
         <v>0.34</v>
       </c>
-      <c r="IV25">
+      <c r="IW25">
         <v>1.69</v>
       </c>
-      <c r="IW25">
-        <v>0</v>
-      </c>
       <c r="IX25">
         <v>0</v>
       </c>
@@ -14803,6 +14920,9 @@
         <v>0</v>
       </c>
       <c r="JA25">
+        <v>0</v>
+      </c>
+      <c r="JB25">
         <v>8.470000000000001</v>
       </c>
     </row>
@@ -15412,19 +15532,19 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB26" t="inlineStr">
+      <c r="HC26" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HC26" t="inlineStr">
+      <c r="HD26" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="HD26" t="inlineStr">
-        <is>
-          <t>all large safety   public west</t>
+      <c r="HE26" t="inlineStr">
+        <is>
+          <t>all large safety    public west</t>
         </is>
       </c>
     </row>
@@ -16034,14 +16154,14 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB27" t="inlineStr">
+      <c r="HC27" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all huge safety   public </t>
+      <c r="HE27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all huge safety    public </t>
         </is>
       </c>
     </row>
@@ -16654,9 +16774,14 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HD28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all small safety    </t>
+      <c r="HB28" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all small safety   private  </t>
         </is>
       </c>
     </row>
@@ -16869,9 +16994,14 @@
           <t>all</t>
         </is>
       </c>
-      <c r="HD29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all NA NA    </t>
+      <c r="HB29" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all NA NA   private  </t>
         </is>
       </c>
     </row>
@@ -17505,14 +17635,19 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HC30" t="inlineStr">
+      <c r="HB30" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HD30" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="HD30" t="inlineStr">
-        <is>
-          <t>all tiny target    west</t>
+      <c r="HE30" t="inlineStr">
+        <is>
+          <t>all tiny target   private  west</t>
         </is>
       </c>
     </row>
@@ -18134,9 +18269,14 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HD31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all small target    </t>
+      <c r="HB31" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all small target   private  </t>
         </is>
       </c>
     </row>
@@ -18775,9 +18915,14 @@
           <t>open</t>
         </is>
       </c>
-      <c r="HD32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all small target women open  </t>
+      <c r="HB32" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all small target women open private  </t>
         </is>
       </c>
     </row>
@@ -19393,14 +19538,14 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HB33" t="inlineStr">
+      <c r="HC33" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all large target   public </t>
+      <c r="HE33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all large target    public </t>
         </is>
       </c>
     </row>
@@ -20022,9 +20167,14 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HD34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all tiny reach    </t>
+      <c r="HB34" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all tiny reach   private  </t>
         </is>
       </c>
     </row>
@@ -20628,9 +20778,14 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HD35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all medium reach    </t>
+      <c r="HB35" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all medium reach   private  </t>
         </is>
       </c>
     </row>
@@ -21308,9 +21463,14 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HD36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all medium reach    </t>
+      <c r="HB36" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all medium reach   private  </t>
         </is>
       </c>
     </row>
@@ -21535,14 +21695,14 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB37" t="inlineStr">
+      <c r="HC37" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all NA safety   public </t>
+      <c r="HE37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all NA safety    public </t>
         </is>
       </c>
     </row>
@@ -22128,19 +22288,19 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HB38" t="inlineStr">
+      <c r="HC38" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HC38" t="inlineStr">
+      <c r="HD38" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="HD38" t="inlineStr">
-        <is>
-          <t>all huge reach   public west</t>
+      <c r="HE38" t="inlineStr">
+        <is>
+          <t>all huge reach    public west</t>
         </is>
       </c>
     </row>
@@ -22740,19 +22900,19 @@
           <t>open</t>
         </is>
       </c>
-      <c r="HB39" t="inlineStr">
+      <c r="HC39" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HC39" t="inlineStr">
+      <c r="HD39" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="HD39" t="inlineStr">
-        <is>
-          <t>all huge target  open public west</t>
+      <c r="HE39" t="inlineStr">
+        <is>
+          <t>all huge target  open  public west</t>
         </is>
       </c>
     </row>
@@ -23374,14 +23534,14 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB40" t="inlineStr">
+      <c r="HC40" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all huge safety   public </t>
+      <c r="HE40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all huge safety    public </t>
         </is>
       </c>
     </row>
@@ -24002,14 +24162,14 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HB41" t="inlineStr">
+      <c r="HC41" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all huge target   public </t>
+      <c r="HE41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all huge target    public </t>
         </is>
       </c>
     </row>
@@ -24641,14 +24801,14 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB42" t="inlineStr">
+      <c r="HC42" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all large safety   public </t>
+      <c r="HE42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all large safety    public </t>
         </is>
       </c>
     </row>
@@ -25266,14 +25426,14 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HB43" t="inlineStr">
+      <c r="HC43" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all huge target   public </t>
+      <c r="HE43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all huge target    public </t>
         </is>
       </c>
     </row>
@@ -25898,9 +26058,14 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HD44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all medium safety    </t>
+      <c r="HB44" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all medium safety   private  </t>
         </is>
       </c>
     </row>
@@ -26514,19 +26679,19 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB45" t="inlineStr">
+      <c r="HC45" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HC45" t="inlineStr">
+      <c r="HD45" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="HD45" t="inlineStr">
-        <is>
-          <t>all huge safety   public west</t>
+      <c r="HE45" t="inlineStr">
+        <is>
+          <t>all huge safety    public west</t>
         </is>
       </c>
     </row>
@@ -27153,14 +27318,14 @@
           <t>open</t>
         </is>
       </c>
-      <c r="HB46" t="inlineStr">
+      <c r="HC46" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all huge safety  open public </t>
+      <c r="HE46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all huge safety  open  public </t>
         </is>
       </c>
     </row>
@@ -27791,9 +27956,14 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HD47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all medium reach    </t>
+      <c r="HB47" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all medium reach   private  </t>
         </is>
       </c>
     </row>
@@ -28405,9 +28575,14 @@
           <t>open</t>
         </is>
       </c>
-      <c r="HD48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all small target  open  </t>
+      <c r="HB48" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all small target  open private  </t>
         </is>
       </c>
     </row>
@@ -29023,9 +29198,14 @@
           <t>women</t>
         </is>
       </c>
-      <c r="HD49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all small reach women   </t>
+      <c r="HB49" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all small reach women  private  </t>
         </is>
       </c>
     </row>
@@ -29646,9 +29826,14 @@
           <t>open</t>
         </is>
       </c>
-      <c r="HD50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all small reach  open  </t>
+      <c r="HB50" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all small reach  open private  </t>
         </is>
       </c>
     </row>
@@ -30156,14 +30341,14 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HB51" t="inlineStr">
+      <c r="HC51" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all medium target   public </t>
+      <c r="HE51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all medium target    public </t>
         </is>
       </c>
     </row>
@@ -30784,9 +30969,14 @@
           <t>open</t>
         </is>
       </c>
-      <c r="HD52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all small reach  open  </t>
+      <c r="HB52" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all small reach  open private  </t>
         </is>
       </c>
     </row>
@@ -31378,19 +31568,19 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB53" t="inlineStr">
+      <c r="HC53" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HC53" t="inlineStr">
+      <c r="HD53" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="HD53" t="inlineStr">
-        <is>
-          <t>all large safety   public west</t>
+      <c r="HE53" t="inlineStr">
+        <is>
+          <t>all large safety    public west</t>
         </is>
       </c>
     </row>
@@ -31997,14 +32187,14 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB54" t="inlineStr">
+      <c r="HC54" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all huge safety   public </t>
+      <c r="HE54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all huge safety    public </t>
         </is>
       </c>
     </row>
@@ -32624,14 +32814,14 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB55" t="inlineStr">
+      <c r="HC55" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all large safety   public </t>
+      <c r="HE55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all large safety    public </t>
         </is>
       </c>
     </row>
@@ -33262,14 +33452,14 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB56" t="inlineStr">
+      <c r="HC56" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all large safety   public </t>
+      <c r="HE56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all large safety    public </t>
         </is>
       </c>
     </row>
@@ -33893,9 +34083,14 @@
           <t>reach</t>
         </is>
       </c>
-      <c r="HD57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all medium reach    </t>
+      <c r="HB57" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HE57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all medium reach   private  </t>
         </is>
       </c>
     </row>
@@ -34522,14 +34717,14 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB58" t="inlineStr">
+      <c r="HC58" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all medium safety   public </t>
+      <c r="HE58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all medium safety    public </t>
         </is>
       </c>
     </row>
@@ -35113,19 +35308,19 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HB59" t="inlineStr">
+      <c r="HC59" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HC59" t="inlineStr">
+      <c r="HD59" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="HD59" t="inlineStr">
-        <is>
-          <t>all huge target   public west</t>
+      <c r="HE59" t="inlineStr">
+        <is>
+          <t>all huge target    public west</t>
         </is>
       </c>
     </row>
@@ -35414,14 +35609,19 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HC60" t="inlineStr">
+      <c r="HB60" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="HD60" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="HD60" t="inlineStr">
-        <is>
-          <t>all large safety    west</t>
+      <c r="HE60" t="inlineStr">
+        <is>
+          <t>all large safety   private  west</t>
         </is>
       </c>
     </row>
@@ -36057,19 +36257,19 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HB61" t="inlineStr">
+      <c r="HC61" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HC61" t="inlineStr">
+      <c r="HD61" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="HD61" t="inlineStr">
-        <is>
-          <t>all large target   public west</t>
+      <c r="HE61" t="inlineStr">
+        <is>
+          <t>all large target    public west</t>
         </is>
       </c>
     </row>
@@ -36705,19 +36905,19 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HB62" t="inlineStr">
+      <c r="HC62" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HC62" t="inlineStr">
+      <c r="HD62" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="HD62" t="inlineStr">
-        <is>
-          <t>all huge target   public west</t>
+      <c r="HE62" t="inlineStr">
+        <is>
+          <t>all huge target    public west</t>
         </is>
       </c>
     </row>
@@ -37291,19 +37491,19 @@
           <t>target</t>
         </is>
       </c>
-      <c r="HB63" t="inlineStr">
+      <c r="HC63" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HC63" t="inlineStr">
+      <c r="HD63" t="inlineStr">
         <is>
           <t>west</t>
         </is>
       </c>
-      <c r="HD63" t="inlineStr">
-        <is>
-          <t>all large target   public west</t>
+      <c r="HE63" t="inlineStr">
+        <is>
+          <t>all large target    public west</t>
         </is>
       </c>
     </row>
@@ -37909,14 +38109,14 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB64" t="inlineStr">
+      <c r="HC64" t="inlineStr">
         <is>
           <t>public</t>
         </is>
       </c>
-      <c r="HD64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">all huge safety   public </t>
+      <c r="HE64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">all huge safety    public </t>
         </is>
       </c>
     </row>

--- a/Shiny/college_data_shiny_all_latest.xlsx
+++ b/Shiny/college_data_shiny_all_latest.xlsx
@@ -3671,10 +3671,10 @@
         <v>0</v>
       </c>
       <c r="HL5">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="HM5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="HN5">
         <v>0</v>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="HS5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="HT5">
         <v>1</v>
@@ -3701,19 +3701,19 @@
         <v>0</v>
       </c>
       <c r="HV5">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="HW5">
         <v>0</v>
       </c>
       <c r="HX5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HY5">
         <v>0</v>
       </c>
       <c r="HZ5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IA5">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="IE5">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="IF5">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="II5">
-        <v>8.49</v>
+        <v>4.63</v>
       </c>
       <c r="IJ5">
-        <v>5.4</v>
+        <v>3.09</v>
       </c>
       <c r="IK5">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="IP5">
-        <v>3.86</v>
+        <v>2.32</v>
       </c>
       <c r="IQ5">
         <v>0.39</v>
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="IS5">
-        <v>18.53</v>
+        <v>10.81</v>
       </c>
       <c r="IT5">
         <v>0</v>
       </c>
       <c r="IU5">
-        <v>0.77</v>
+        <v>0.39</v>
       </c>
       <c r="IV5">
         <v>0</v>
       </c>
       <c r="IW5">
-        <v>0.77</v>
+        <v>0.39</v>
       </c>
       <c r="IX5">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="JB5">
-        <v>19.3</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="6">
@@ -12150,10 +12150,10 @@
         <v>0</v>
       </c>
       <c r="HL21">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="HM21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="HN21">
         <v>0</v>
@@ -12171,7 +12171,7 @@
         <v>10</v>
       </c>
       <c r="HS21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HT21">
         <v>8</v>
@@ -12180,19 +12180,19 @@
         <v>0</v>
       </c>
       <c r="HV21">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="HW21">
         <v>8</v>
       </c>
       <c r="HX21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HY21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="HZ21">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="IA21">
         <v>0</v>
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="IE21">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="IF21">
         <v>0</v>
@@ -12219,10 +12219,10 @@
         <v>0</v>
       </c>
       <c r="II21">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="IJ21">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="IK21">
         <v>0</v>
@@ -12240,7 +12240,7 @@
         <v>0.31</v>
       </c>
       <c r="IP21">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="IQ21">
         <v>0.25</v>
@@ -12249,19 +12249,19 @@
         <v>0</v>
       </c>
       <c r="IS21">
-        <v>1.84</v>
+        <v>1.5</v>
       </c>
       <c r="IT21">
         <v>0.25</v>
       </c>
       <c r="IU21">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="IV21">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
       <c r="IW21">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="IX21">
         <v>0</v>
@@ -12276,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="JB21">
-        <v>2.78</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="22">
@@ -14797,50 +14797,50 @@
         <v>0</v>
       </c>
       <c r="HL25">
+        <v>2</v>
+      </c>
+      <c r="HM25">
+        <v>0</v>
+      </c>
+      <c r="HN25">
+        <v>0</v>
+      </c>
+      <c r="HO25">
+        <v>0</v>
+      </c>
+      <c r="HP25">
+        <v>0</v>
+      </c>
+      <c r="HQ25">
+        <v>0</v>
+      </c>
+      <c r="HR25">
+        <v>1</v>
+      </c>
+      <c r="HS25">
+        <v>9</v>
+      </c>
+      <c r="HT25">
+        <v>1</v>
+      </c>
+      <c r="HU25">
+        <v>0</v>
+      </c>
+      <c r="HV25">
+        <v>13</v>
+      </c>
+      <c r="HW25">
         <v>3</v>
       </c>
-      <c r="HM25">
-        <v>0</v>
-      </c>
-      <c r="HN25">
-        <v>0</v>
-      </c>
-      <c r="HO25">
-        <v>0</v>
-      </c>
-      <c r="HP25">
-        <v>0</v>
-      </c>
-      <c r="HQ25">
-        <v>0</v>
-      </c>
-      <c r="HR25">
-        <v>2</v>
-      </c>
-      <c r="HS25">
-        <v>14</v>
-      </c>
-      <c r="HT25">
-        <v>1</v>
-      </c>
-      <c r="HU25">
-        <v>0</v>
-      </c>
-      <c r="HV25">
-        <v>20</v>
-      </c>
-      <c r="HW25">
+      <c r="HX25">
+        <v>0</v>
+      </c>
+      <c r="HY25">
+        <v>1</v>
+      </c>
+      <c r="HZ25">
         <v>4</v>
       </c>
-      <c r="HX25">
-        <v>0</v>
-      </c>
-      <c r="HY25">
-        <v>1</v>
-      </c>
-      <c r="HZ25">
-        <v>5</v>
-      </c>
       <c r="IA25">
         <v>0</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>0</v>
       </c>
       <c r="IE25">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="IF25">
         <v>0</v>
@@ -14866,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="II25">
-        <v>1.02</v>
+        <v>0.68</v>
       </c>
       <c r="IJ25">
         <v>0</v>
@@ -14884,10 +14884,10 @@
         <v>0</v>
       </c>
       <c r="IO25">
-        <v>0.68</v>
+        <v>0.34</v>
       </c>
       <c r="IP25">
-        <v>4.74</v>
+        <v>3.05</v>
       </c>
       <c r="IQ25">
         <v>0.34</v>
@@ -14896,10 +14896,10 @@
         <v>0</v>
       </c>
       <c r="IS25">
-        <v>6.77</v>
+        <v>4.4</v>
       </c>
       <c r="IT25">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="IU25">
         <v>0</v>
@@ -14908,7 +14908,7 @@
         <v>0.34</v>
       </c>
       <c r="IW25">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="IX25">
         <v>0</v>
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="JB25">
-        <v>8.470000000000001</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="26">

--- a/Shiny/college_data_shiny_all_latest.xlsx
+++ b/Shiny/college_data_shiny_all_latest.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:JB64"/>
+  <dimension ref="A1:JN64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1510,160 +1510,220 @@
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
+          <t>total_criminal_oncampus</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>total_criminal_oncampus_sex</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>total_criminal_noncampus</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>total_criminal_noncampus_sex</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>total_criminal_public</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>total_criminal_public_sex</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
           <t>domestic_violence</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>dating_violence</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>stalking</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>total_vawa</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>illegal_weapons_possession</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>drug_law_violations</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>liquor_law_violations</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>total_arrests</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>total_css</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>rate_murder_non_negligent_manslaughter</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>rate_negligent_manslaughter</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>rate_sex_offenses_forcible</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>rate_rape</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>rate_fondling</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>rate_sex_offenses_non_forcible</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>rate_incest</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>rate_statutory_rape</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>rate_robbery</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>rate_aggravated_assault</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>rate_burglary</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>rate_motor_vehicle_theft</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>rate_arson</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>rate_total_criminal</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_criminal_oncampus</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_criminal_oncampus_sex</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_criminal_noncampus</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_criminal_noncampus_sex</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_criminal_public</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_criminal_public_sex</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>rate_domestic_violence</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>rate_dating_violence</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>rate_stalking</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>rate_total_vawa</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>rate_illegal_weapons_possession</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>rate_drug_law_violations</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>rate_liquor_law_violations</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>rate_total_arrests</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>rate_total_css</t>
         </is>
@@ -3704,16 +3764,16 @@
         <v>28</v>
       </c>
       <c r="HW5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="HY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA5">
         <v>0</v>
@@ -3725,61 +3785,61 @@
         <v>0</v>
       </c>
       <c r="ID5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE5">
+        <v>0</v>
+      </c>
+      <c r="IF5">
+        <v>1</v>
+      </c>
+      <c r="IG5">
+        <v>0</v>
+      </c>
+      <c r="IH5">
+        <v>0</v>
+      </c>
+      <c r="II5">
+        <v>0</v>
+      </c>
+      <c r="IJ5">
+        <v>0</v>
+      </c>
+      <c r="IK5">
         <v>29</v>
       </c>
-      <c r="IF5">
-        <v>0</v>
-      </c>
-      <c r="IG5">
-        <v>0</v>
-      </c>
-      <c r="IH5">
-        <v>0</v>
-      </c>
-      <c r="II5">
+      <c r="IL5">
+        <v>0</v>
+      </c>
+      <c r="IM5">
+        <v>0</v>
+      </c>
+      <c r="IN5">
+        <v>0</v>
+      </c>
+      <c r="IO5">
         <v>4.63</v>
       </c>
-      <c r="IJ5">
+      <c r="IP5">
         <v>3.09</v>
       </c>
-      <c r="IK5">
-        <v>0</v>
-      </c>
-      <c r="IL5">
-        <v>0</v>
-      </c>
-      <c r="IM5">
-        <v>0</v>
-      </c>
-      <c r="IN5">
+      <c r="IQ5">
+        <v>0</v>
+      </c>
+      <c r="IR5">
+        <v>0</v>
+      </c>
+      <c r="IS5">
+        <v>0</v>
+      </c>
+      <c r="IT5">
         <v>0.39</v>
       </c>
-      <c r="IO5">
-        <v>0</v>
-      </c>
-      <c r="IP5">
+      <c r="IU5">
+        <v>0</v>
+      </c>
+      <c r="IV5">
         <v>2.32</v>
-      </c>
-      <c r="IQ5">
-        <v>0.39</v>
-      </c>
-      <c r="IR5">
-        <v>0</v>
-      </c>
-      <c r="IS5">
-        <v>10.81</v>
-      </c>
-      <c r="IT5">
-        <v>0</v>
-      </c>
-      <c r="IU5">
-        <v>0.39</v>
-      </c>
-      <c r="IV5">
-        <v>0</v>
       </c>
       <c r="IW5">
         <v>0.39</v>
@@ -3788,15 +3848,51 @@
         <v>0</v>
       </c>
       <c r="IY5">
-        <v>0</v>
+        <v>10.81</v>
       </c>
       <c r="IZ5">
-        <v>0</v>
+        <v>10.42</v>
       </c>
       <c r="JA5">
-        <v>0</v>
+        <v>7.72</v>
       </c>
       <c r="JB5">
+        <v>0.39</v>
+      </c>
+      <c r="JC5">
+        <v>0</v>
+      </c>
+      <c r="JD5">
+        <v>0</v>
+      </c>
+      <c r="JE5">
+        <v>0</v>
+      </c>
+      <c r="JF5">
+        <v>0</v>
+      </c>
+      <c r="JG5">
+        <v>0.39</v>
+      </c>
+      <c r="JH5">
+        <v>0</v>
+      </c>
+      <c r="JI5">
+        <v>0.39</v>
+      </c>
+      <c r="JJ5">
+        <v>0</v>
+      </c>
+      <c r="JK5">
+        <v>0</v>
+      </c>
+      <c r="JL5">
+        <v>0</v>
+      </c>
+      <c r="JM5">
+        <v>0</v>
+      </c>
+      <c r="JN5">
         <v>11.19</v>
       </c>
     </row>
@@ -12183,99 +12279,135 @@
         <v>48</v>
       </c>
       <c r="HW21">
+        <v>22</v>
+      </c>
+      <c r="HX21">
+        <v>10</v>
+      </c>
+      <c r="HY21">
+        <v>4</v>
+      </c>
+      <c r="HZ21">
+        <v>2</v>
+      </c>
+      <c r="IA21">
+        <v>22</v>
+      </c>
+      <c r="IB21">
+        <v>0</v>
+      </c>
+      <c r="IC21">
         <v>8</v>
       </c>
-      <c r="HX21">
-        <v>1</v>
-      </c>
-      <c r="HY21">
+      <c r="ID21">
+        <v>1</v>
+      </c>
+      <c r="IE21">
         <v>15</v>
       </c>
-      <c r="HZ21">
+      <c r="IF21">
         <v>24</v>
       </c>
-      <c r="IA21">
-        <v>0</v>
-      </c>
-      <c r="IB21">
-        <v>0</v>
-      </c>
-      <c r="IC21">
-        <v>0</v>
-      </c>
-      <c r="ID21">
-        <v>0</v>
-      </c>
-      <c r="IE21">
+      <c r="IG21">
+        <v>0</v>
+      </c>
+      <c r="IH21">
+        <v>0</v>
+      </c>
+      <c r="II21">
+        <v>0</v>
+      </c>
+      <c r="IJ21">
+        <v>0</v>
+      </c>
+      <c r="IK21">
         <v>72</v>
       </c>
-      <c r="IF21">
-        <v>0</v>
-      </c>
-      <c r="IG21">
-        <v>0</v>
-      </c>
-      <c r="IH21">
-        <v>0</v>
-      </c>
-      <c r="II21">
+      <c r="IL21">
+        <v>0</v>
+      </c>
+      <c r="IM21">
+        <v>0</v>
+      </c>
+      <c r="IN21">
+        <v>0</v>
+      </c>
+      <c r="IO21">
         <v>0.28</v>
       </c>
-      <c r="IJ21">
+      <c r="IP21">
         <v>0.09</v>
       </c>
-      <c r="IK21">
-        <v>0</v>
-      </c>
-      <c r="IL21">
-        <v>0</v>
-      </c>
-      <c r="IM21">
-        <v>0</v>
-      </c>
-      <c r="IN21">
+      <c r="IQ21">
+        <v>0</v>
+      </c>
+      <c r="IR21">
+        <v>0</v>
+      </c>
+      <c r="IS21">
+        <v>0</v>
+      </c>
+      <c r="IT21">
         <v>0.34</v>
       </c>
-      <c r="IO21">
+      <c r="IU21">
         <v>0.31</v>
       </c>
-      <c r="IP21">
+      <c r="IV21">
         <v>0.22</v>
       </c>
-      <c r="IQ21">
+      <c r="IW21">
         <v>0.25</v>
       </c>
-      <c r="IR21">
-        <v>0</v>
-      </c>
-      <c r="IS21">
+      <c r="IX21">
+        <v>0</v>
+      </c>
+      <c r="IY21">
         <v>1.5</v>
       </c>
-      <c r="IT21">
+      <c r="IZ21">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="JA21">
+        <v>0.31</v>
+      </c>
+      <c r="JB21">
+        <v>0.12</v>
+      </c>
+      <c r="JC21">
+        <v>0.06</v>
+      </c>
+      <c r="JD21">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="JE21">
+        <v>0</v>
+      </c>
+      <c r="JF21">
         <v>0.25</v>
       </c>
-      <c r="IU21">
+      <c r="JG21">
         <v>0.03</v>
       </c>
-      <c r="IV21">
+      <c r="JH21">
         <v>0.47</v>
       </c>
-      <c r="IW21">
+      <c r="JI21">
         <v>0.75</v>
       </c>
-      <c r="IX21">
-        <v>0</v>
-      </c>
-      <c r="IY21">
-        <v>0</v>
-      </c>
-      <c r="IZ21">
-        <v>0</v>
-      </c>
-      <c r="JA21">
-        <v>0</v>
-      </c>
-      <c r="JB21">
+      <c r="JJ21">
+        <v>0</v>
+      </c>
+      <c r="JK21">
+        <v>0</v>
+      </c>
+      <c r="JL21">
+        <v>0</v>
+      </c>
+      <c r="JM21">
+        <v>0</v>
+      </c>
+      <c r="JN21">
         <v>2.25</v>
       </c>
     </row>
@@ -14830,99 +14962,135 @@
         <v>13</v>
       </c>
       <c r="HW25">
+        <v>13</v>
+      </c>
+      <c r="HX25">
+        <v>2</v>
+      </c>
+      <c r="HY25">
+        <v>0</v>
+      </c>
+      <c r="HZ25">
+        <v>0</v>
+      </c>
+      <c r="IA25">
+        <v>0</v>
+      </c>
+      <c r="IB25">
+        <v>0</v>
+      </c>
+      <c r="IC25">
         <v>3</v>
       </c>
-      <c r="HX25">
-        <v>0</v>
-      </c>
-      <c r="HY25">
-        <v>1</v>
-      </c>
-      <c r="HZ25">
+      <c r="ID25">
+        <v>0</v>
+      </c>
+      <c r="IE25">
+        <v>1</v>
+      </c>
+      <c r="IF25">
         <v>4</v>
       </c>
-      <c r="IA25">
-        <v>0</v>
-      </c>
-      <c r="IB25">
-        <v>0</v>
-      </c>
-      <c r="IC25">
-        <v>0</v>
-      </c>
-      <c r="ID25">
-        <v>0</v>
-      </c>
-      <c r="IE25">
+      <c r="IG25">
+        <v>0</v>
+      </c>
+      <c r="IH25">
+        <v>0</v>
+      </c>
+      <c r="II25">
+        <v>0</v>
+      </c>
+      <c r="IJ25">
+        <v>0</v>
+      </c>
+      <c r="IK25">
         <v>17</v>
       </c>
-      <c r="IF25">
-        <v>0</v>
-      </c>
-      <c r="IG25">
-        <v>0</v>
-      </c>
-      <c r="IH25">
-        <v>0</v>
-      </c>
-      <c r="II25">
+      <c r="IL25">
+        <v>0</v>
+      </c>
+      <c r="IM25">
+        <v>0</v>
+      </c>
+      <c r="IN25">
+        <v>0</v>
+      </c>
+      <c r="IO25">
         <v>0.68</v>
       </c>
-      <c r="IJ25">
-        <v>0</v>
-      </c>
-      <c r="IK25">
-        <v>0</v>
-      </c>
-      <c r="IL25">
-        <v>0</v>
-      </c>
-      <c r="IM25">
-        <v>0</v>
-      </c>
-      <c r="IN25">
-        <v>0</v>
-      </c>
-      <c r="IO25">
+      <c r="IP25">
+        <v>0</v>
+      </c>
+      <c r="IQ25">
+        <v>0</v>
+      </c>
+      <c r="IR25">
+        <v>0</v>
+      </c>
+      <c r="IS25">
+        <v>0</v>
+      </c>
+      <c r="IT25">
+        <v>0</v>
+      </c>
+      <c r="IU25">
         <v>0.34</v>
       </c>
-      <c r="IP25">
+      <c r="IV25">
         <v>3.05</v>
       </c>
-      <c r="IQ25">
+      <c r="IW25">
         <v>0.34</v>
       </c>
-      <c r="IR25">
-        <v>0</v>
-      </c>
-      <c r="IS25">
+      <c r="IX25">
+        <v>0</v>
+      </c>
+      <c r="IY25">
         <v>4.4</v>
       </c>
-      <c r="IT25">
+      <c r="IZ25">
+        <v>4.4</v>
+      </c>
+      <c r="JA25">
+        <v>0.68</v>
+      </c>
+      <c r="JB25">
+        <v>0</v>
+      </c>
+      <c r="JC25">
+        <v>0</v>
+      </c>
+      <c r="JD25">
+        <v>0</v>
+      </c>
+      <c r="JE25">
+        <v>0</v>
+      </c>
+      <c r="JF25">
         <v>1.02</v>
       </c>
-      <c r="IU25">
-        <v>0</v>
-      </c>
-      <c r="IV25">
+      <c r="JG25">
+        <v>0</v>
+      </c>
+      <c r="JH25">
         <v>0.34</v>
       </c>
-      <c r="IW25">
+      <c r="JI25">
         <v>1.35</v>
       </c>
-      <c r="IX25">
-        <v>0</v>
-      </c>
-      <c r="IY25">
-        <v>0</v>
-      </c>
-      <c r="IZ25">
-        <v>0</v>
-      </c>
-      <c r="JA25">
-        <v>0</v>
-      </c>
-      <c r="JB25">
+      <c r="JJ25">
+        <v>0</v>
+      </c>
+      <c r="JK25">
+        <v>0</v>
+      </c>
+      <c r="JL25">
+        <v>0</v>
+      </c>
+      <c r="JM25">
+        <v>0</v>
+      </c>
+      <c r="JN25">
         <v>5.76</v>
       </c>
     </row>

--- a/Shiny/college_data_shiny_all_latest.xlsx
+++ b/Shiny/college_data_shiny_all_latest.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:JN64"/>
+  <dimension ref="A1:JV64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1520,210 +1520,250 @@
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
+          <t>total_criminal_oncampus_housing</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>total_criminal_oncampus_housing_sex</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
           <t>total_criminal_noncampus</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>total_criminal_noncampus_sex</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>total_criminal_public</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>total_criminal_public_sex</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>total_criminal_oncampus_nonhousing</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>total_criminal_oncampus_nonhousing_sex</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>domestic_violence</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>dating_violence</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>stalking</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>total_vawa</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>illegal_weapons_possession</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>drug_law_violations</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>liquor_law_violations</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>total_arrests</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>total_css</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>rate_murder_non_negligent_manslaughter</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>rate_negligent_manslaughter</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>rate_sex_offenses_forcible</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>rate_rape</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>rate_fondling</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>rate_sex_offenses_non_forcible</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>rate_incest</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>rate_statutory_rape</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>rate_robbery</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>rate_aggravated_assault</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>rate_burglary</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>rate_motor_vehicle_theft</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>rate_arson</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>rate_total_criminal</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>rate_total_criminal_oncampus</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>rate_total_criminal_oncampus_sex</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_criminal_oncampus_housing</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_criminal_oncampus_housing_sex</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>rate_total_criminal_noncampus</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>rate_total_criminal_noncampus_sex</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>rate_total_criminal_public</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>rate_total_criminal_public_sex</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_criminal_oncampus_nonhousing</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>rate_total_criminal_oncampus_nonhousing_sex</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>rate_domestic_violence</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>rate_dating_violence</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>rate_stalking</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>rate_total_vawa</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>rate_illegal_weapons_possession</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>rate_drug_law_violations</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>rate_liquor_law_violations</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>rate_total_arrests</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>rate_total_css</t>
         </is>
@@ -3770,13 +3810,13 @@
         <v>20</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="HZ5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="IA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB5">
         <v>0</v>
@@ -3785,114 +3825,138 @@
         <v>0</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IG5">
         <v>0</v>
       </c>
       <c r="IH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II5">
         <v>0</v>
       </c>
       <c r="IJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK5">
+        <v>0</v>
+      </c>
+      <c r="IL5">
+        <v>0</v>
+      </c>
+      <c r="IM5">
+        <v>0</v>
+      </c>
+      <c r="IN5">
+        <v>0</v>
+      </c>
+      <c r="IO5">
         <v>29</v>
       </c>
-      <c r="IL5">
-        <v>0</v>
-      </c>
-      <c r="IM5">
-        <v>0</v>
-      </c>
-      <c r="IN5">
-        <v>0</v>
-      </c>
-      <c r="IO5">
+      <c r="IP5">
+        <v>0</v>
+      </c>
+      <c r="IQ5">
+        <v>0</v>
+      </c>
+      <c r="IR5">
+        <v>0</v>
+      </c>
+      <c r="IS5">
         <v>4.63</v>
       </c>
-      <c r="IP5">
+      <c r="IT5">
         <v>3.09</v>
       </c>
-      <c r="IQ5">
-        <v>0</v>
-      </c>
-      <c r="IR5">
-        <v>0</v>
-      </c>
-      <c r="IS5">
-        <v>0</v>
-      </c>
-      <c r="IT5">
+      <c r="IU5">
+        <v>0</v>
+      </c>
+      <c r="IV5">
+        <v>0</v>
+      </c>
+      <c r="IW5">
+        <v>0</v>
+      </c>
+      <c r="IX5">
         <v>0.39</v>
       </c>
-      <c r="IU5">
-        <v>0</v>
-      </c>
-      <c r="IV5">
+      <c r="IY5">
+        <v>0</v>
+      </c>
+      <c r="IZ5">
         <v>2.32</v>
       </c>
-      <c r="IW5">
+      <c r="JA5">
         <v>0.39</v>
       </c>
-      <c r="IX5">
-        <v>0</v>
-      </c>
-      <c r="IY5">
+      <c r="JB5">
+        <v>0</v>
+      </c>
+      <c r="JC5">
         <v>10.81</v>
       </c>
-      <c r="IZ5">
+      <c r="JD5">
         <v>10.42</v>
       </c>
-      <c r="JA5">
+      <c r="JE5">
         <v>7.72</v>
       </c>
-      <c r="JB5">
+      <c r="JF5">
+        <v>7.72</v>
+      </c>
+      <c r="JG5">
+        <v>6.18</v>
+      </c>
+      <c r="JH5">
         <v>0.39</v>
       </c>
-      <c r="JC5">
-        <v>0</v>
-      </c>
-      <c r="JD5">
-        <v>0</v>
-      </c>
-      <c r="JE5">
-        <v>0</v>
-      </c>
-      <c r="JF5">
-        <v>0</v>
-      </c>
-      <c r="JG5">
+      <c r="JI5">
+        <v>0</v>
+      </c>
+      <c r="JJ5">
+        <v>0</v>
+      </c>
+      <c r="JK5">
+        <v>0</v>
+      </c>
+      <c r="JL5">
+        <v>2.7</v>
+      </c>
+      <c r="JM5">
+        <v>1.54</v>
+      </c>
+      <c r="JN5">
+        <v>0</v>
+      </c>
+      <c r="JO5">
         <v>0.39</v>
       </c>
-      <c r="JH5">
-        <v>0</v>
-      </c>
-      <c r="JI5">
+      <c r="JP5">
+        <v>0</v>
+      </c>
+      <c r="JQ5">
         <v>0.39</v>
       </c>
-      <c r="JJ5">
-        <v>0</v>
-      </c>
-      <c r="JK5">
-        <v>0</v>
-      </c>
-      <c r="JL5">
-        <v>0</v>
-      </c>
-      <c r="JM5">
-        <v>0</v>
-      </c>
-      <c r="JN5">
+      <c r="JR5">
+        <v>0</v>
+      </c>
+      <c r="JS5">
+        <v>0</v>
+      </c>
+      <c r="JT5">
+        <v>0</v>
+      </c>
+      <c r="JU5">
+        <v>0</v>
+      </c>
+      <c r="JV5">
         <v>11.19</v>
       </c>
     </row>
@@ -12285,129 +12349,153 @@
         <v>10</v>
       </c>
       <c r="HY21">
+        <v>11</v>
+      </c>
+      <c r="HZ21">
+        <v>10</v>
+      </c>
+      <c r="IA21">
         <v>4</v>
       </c>
-      <c r="HZ21">
+      <c r="IB21">
         <v>2</v>
       </c>
-      <c r="IA21">
+      <c r="IC21">
         <v>22</v>
       </c>
-      <c r="IB21">
-        <v>0</v>
-      </c>
-      <c r="IC21">
+      <c r="ID21">
+        <v>0</v>
+      </c>
+      <c r="IE21">
+        <v>11</v>
+      </c>
+      <c r="IF21">
+        <v>0</v>
+      </c>
+      <c r="IG21">
         <v>8</v>
       </c>
-      <c r="ID21">
-        <v>1</v>
-      </c>
-      <c r="IE21">
+      <c r="IH21">
+        <v>1</v>
+      </c>
+      <c r="II21">
         <v>15</v>
       </c>
-      <c r="IF21">
+      <c r="IJ21">
         <v>24</v>
       </c>
-      <c r="IG21">
-        <v>0</v>
-      </c>
-      <c r="IH21">
-        <v>0</v>
-      </c>
-      <c r="II21">
-        <v>0</v>
-      </c>
-      <c r="IJ21">
-        <v>0</v>
-      </c>
       <c r="IK21">
+        <v>0</v>
+      </c>
+      <c r="IL21">
+        <v>0</v>
+      </c>
+      <c r="IM21">
+        <v>0</v>
+      </c>
+      <c r="IN21">
+        <v>0</v>
+      </c>
+      <c r="IO21">
         <v>72</v>
       </c>
-      <c r="IL21">
-        <v>0</v>
-      </c>
-      <c r="IM21">
-        <v>0</v>
-      </c>
-      <c r="IN21">
-        <v>0</v>
-      </c>
-      <c r="IO21">
+      <c r="IP21">
+        <v>0</v>
+      </c>
+      <c r="IQ21">
+        <v>0</v>
+      </c>
+      <c r="IR21">
+        <v>0</v>
+      </c>
+      <c r="IS21">
         <v>0.28</v>
       </c>
-      <c r="IP21">
+      <c r="IT21">
         <v>0.09</v>
       </c>
-      <c r="IQ21">
-        <v>0</v>
-      </c>
-      <c r="IR21">
-        <v>0</v>
-      </c>
-      <c r="IS21">
-        <v>0</v>
-      </c>
-      <c r="IT21">
+      <c r="IU21">
+        <v>0</v>
+      </c>
+      <c r="IV21">
+        <v>0</v>
+      </c>
+      <c r="IW21">
+        <v>0</v>
+      </c>
+      <c r="IX21">
         <v>0.34</v>
       </c>
-      <c r="IU21">
+      <c r="IY21">
         <v>0.31</v>
       </c>
-      <c r="IV21">
+      <c r="IZ21">
         <v>0.22</v>
       </c>
-      <c r="IW21">
+      <c r="JA21">
         <v>0.25</v>
       </c>
-      <c r="IX21">
-        <v>0</v>
-      </c>
-      <c r="IY21">
+      <c r="JB21">
+        <v>0</v>
+      </c>
+      <c r="JC21">
         <v>1.5</v>
-      </c>
-      <c r="IZ21">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="JA21">
-        <v>0.31</v>
-      </c>
-      <c r="JB21">
-        <v>0.12</v>
-      </c>
-      <c r="JC21">
-        <v>0.06</v>
       </c>
       <c r="JD21">
         <v>0.6899999999999999</v>
       </c>
       <c r="JE21">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="JF21">
+        <v>0.34</v>
+      </c>
+      <c r="JG21">
+        <v>0.31</v>
+      </c>
+      <c r="JH21">
+        <v>0.12</v>
+      </c>
+      <c r="JI21">
+        <v>0.06</v>
+      </c>
+      <c r="JJ21">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="JK21">
+        <v>0</v>
+      </c>
+      <c r="JL21">
+        <v>0.34</v>
+      </c>
+      <c r="JM21">
+        <v>0</v>
+      </c>
+      <c r="JN21">
         <v>0.25</v>
       </c>
-      <c r="JG21">
+      <c r="JO21">
         <v>0.03</v>
       </c>
-      <c r="JH21">
+      <c r="JP21">
         <v>0.47</v>
       </c>
-      <c r="JI21">
+      <c r="JQ21">
         <v>0.75</v>
       </c>
-      <c r="JJ21">
-        <v>0</v>
-      </c>
-      <c r="JK21">
-        <v>0</v>
-      </c>
-      <c r="JL21">
-        <v>0</v>
-      </c>
-      <c r="JM21">
-        <v>0</v>
-      </c>
-      <c r="JN21">
+      <c r="JR21">
+        <v>0</v>
+      </c>
+      <c r="JS21">
+        <v>0</v>
+      </c>
+      <c r="JT21">
+        <v>0</v>
+      </c>
+      <c r="JU21">
+        <v>0</v>
+      </c>
+      <c r="JV21">
         <v>2.25</v>
       </c>
     </row>
@@ -14968,10 +15056,10 @@
         <v>2</v>
       </c>
       <c r="HY25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="HZ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA25">
         <v>0</v>
@@ -14980,117 +15068,141 @@
         <v>0</v>
       </c>
       <c r="IC25">
+        <v>0</v>
+      </c>
+      <c r="ID25">
+        <v>0</v>
+      </c>
+      <c r="IE25">
+        <v>6</v>
+      </c>
+      <c r="IF25">
+        <v>1</v>
+      </c>
+      <c r="IG25">
         <v>3</v>
       </c>
-      <c r="ID25">
-        <v>0</v>
-      </c>
-      <c r="IE25">
-        <v>1</v>
-      </c>
-      <c r="IF25">
+      <c r="IH25">
+        <v>0</v>
+      </c>
+      <c r="II25">
+        <v>1</v>
+      </c>
+      <c r="IJ25">
         <v>4</v>
       </c>
-      <c r="IG25">
-        <v>0</v>
-      </c>
-      <c r="IH25">
-        <v>0</v>
-      </c>
-      <c r="II25">
-        <v>0</v>
-      </c>
-      <c r="IJ25">
-        <v>0</v>
-      </c>
       <c r="IK25">
+        <v>0</v>
+      </c>
+      <c r="IL25">
+        <v>0</v>
+      </c>
+      <c r="IM25">
+        <v>0</v>
+      </c>
+      <c r="IN25">
+        <v>0</v>
+      </c>
+      <c r="IO25">
         <v>17</v>
       </c>
-      <c r="IL25">
-        <v>0</v>
-      </c>
-      <c r="IM25">
-        <v>0</v>
-      </c>
-      <c r="IN25">
-        <v>0</v>
-      </c>
-      <c r="IO25">
+      <c r="IP25">
+        <v>0</v>
+      </c>
+      <c r="IQ25">
+        <v>0</v>
+      </c>
+      <c r="IR25">
+        <v>0</v>
+      </c>
+      <c r="IS25">
         <v>0.68</v>
       </c>
-      <c r="IP25">
-        <v>0</v>
-      </c>
-      <c r="IQ25">
-        <v>0</v>
-      </c>
-      <c r="IR25">
-        <v>0</v>
-      </c>
-      <c r="IS25">
-        <v>0</v>
-      </c>
       <c r="IT25">
         <v>0</v>
       </c>
       <c r="IU25">
+        <v>0</v>
+      </c>
+      <c r="IV25">
+        <v>0</v>
+      </c>
+      <c r="IW25">
+        <v>0</v>
+      </c>
+      <c r="IX25">
+        <v>0</v>
+      </c>
+      <c r="IY25">
         <v>0.34</v>
       </c>
-      <c r="IV25">
+      <c r="IZ25">
         <v>3.05</v>
       </c>
-      <c r="IW25">
+      <c r="JA25">
         <v>0.34</v>
       </c>
-      <c r="IX25">
-        <v>0</v>
-      </c>
-      <c r="IY25">
+      <c r="JB25">
+        <v>0</v>
+      </c>
+      <c r="JC25">
         <v>4.4</v>
       </c>
-      <c r="IZ25">
+      <c r="JD25">
         <v>4.4</v>
       </c>
-      <c r="JA25">
+      <c r="JE25">
         <v>0.68</v>
       </c>
-      <c r="JB25">
-        <v>0</v>
-      </c>
-      <c r="JC25">
-        <v>0</v>
-      </c>
-      <c r="JD25">
-        <v>0</v>
-      </c>
-      <c r="JE25">
-        <v>0</v>
-      </c>
       <c r="JF25">
+        <v>2.37</v>
+      </c>
+      <c r="JG25">
+        <v>0.34</v>
+      </c>
+      <c r="JH25">
+        <v>0</v>
+      </c>
+      <c r="JI25">
+        <v>0</v>
+      </c>
+      <c r="JJ25">
+        <v>0</v>
+      </c>
+      <c r="JK25">
+        <v>0</v>
+      </c>
+      <c r="JL25">
+        <v>2.03</v>
+      </c>
+      <c r="JM25">
+        <v>0.34</v>
+      </c>
+      <c r="JN25">
         <v>1.02</v>
       </c>
-      <c r="JG25">
-        <v>0</v>
-      </c>
-      <c r="JH25">
+      <c r="JO25">
+        <v>0</v>
+      </c>
+      <c r="JP25">
         <v>0.34</v>
       </c>
-      <c r="JI25">
+      <c r="JQ25">
         <v>1.35</v>
       </c>
-      <c r="JJ25">
-        <v>0</v>
-      </c>
-      <c r="JK25">
-        <v>0</v>
-      </c>
-      <c r="JL25">
-        <v>0</v>
-      </c>
-      <c r="JM25">
-        <v>0</v>
-      </c>
-      <c r="JN25">
+      <c r="JR25">
+        <v>0</v>
+      </c>
+      <c r="JS25">
+        <v>0</v>
+      </c>
+      <c r="JT25">
+        <v>0</v>
+      </c>
+      <c r="JU25">
+        <v>0</v>
+      </c>
+      <c r="JV25">
         <v>5.76</v>
       </c>
     </row>
@@ -35633,6 +35745,21 @@
       <c r="CK60">
         <v>16</v>
       </c>
+      <c r="CM60">
+        <v>5742</v>
+      </c>
+      <c r="CN60">
+        <v>5742</v>
+      </c>
+      <c r="CO60">
+        <v>17622</v>
+      </c>
+      <c r="CP60">
+        <v>1696</v>
+      </c>
+      <c r="CQ60">
+        <v>16682</v>
+      </c>
       <c r="DP60">
         <v>0</v>
       </c>
@@ -35640,13 +35767,13 @@
         <v>0</v>
       </c>
       <c r="DR60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS60">
         <v>0</v>
       </c>
       <c r="DT60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU60">
         <v>1</v>
@@ -35732,6 +35859,12 @@
       <c r="GB60">
         <v>25181</v>
       </c>
+      <c r="GC60">
+        <v>17622</v>
+      </c>
+      <c r="GD60">
+        <v>36000</v>
+      </c>
       <c r="GM60">
         <v>60.33333333333334</v>
       </c>
@@ -35777,9 +35910,9 @@
           <t>safety</t>
         </is>
       </c>
-      <c r="HB60" t="inlineStr">
-        <is>
-          <t>private</t>
+      <c r="HC60" t="inlineStr">
+        <is>
+          <t>public</t>
         </is>
       </c>
       <c r="HD60" t="inlineStr">
@@ -35789,7 +35922,7 @@
       </c>
       <c r="HE60" t="inlineStr">
         <is>
-          <t>all large safety   private  west</t>
+          <t>all large safety    public west</t>
         </is>
       </c>
     </row>
